--- a/Ar_Script/Meetu_Ui_Test/test_result/meminfo_test_data.xlsx
+++ b/Ar_Script/Meetu_Ui_Test/test_result/meminfo_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pytest\Ar_Script\Meetu_Ui_Test\test_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C1A84-1627-4A59-9F86-4CD3F5BD7523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8BE08-78D8-447E-87DF-93C0AE0828CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8085" yWindow="3135" windowWidth="15750" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="1" r:id="rId1"/>
@@ -10942,7 +10942,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Ar_Script/Meetu_Ui_Test/test_result/meminfo_test_data.xlsx
+++ b/Ar_Script/Meetu_Ui_Test/test_result/meminfo_test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pytest\Ar_Script\Meetu_Ui_Test\test_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8BE08-78D8-447E-87DF-93C0AE0828CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBDB98F-6F7C-49D4-A8C8-BC95B7F46E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3135" windowWidth="15750" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="1" r:id="rId1"/>
@@ -8853,7 +8853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
@@ -10941,8 +10941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
